--- a/ApiAutomation/src/TestData.xlsx
+++ b/ApiAutomation/src/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QA\eclipse-workspace\RestAssuredPro\src\test\java\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RestApiAutomation\ApiAutomation\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173226BD-7E81-466E-A687-25253172BA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A08E078-379C-41E7-B98E-F223AED0CFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1692" yWindow="900" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="816" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NamesAndJobs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>name</t>
   </si>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -398,6 +398,14 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
